--- a/raw/1970election.xlsx
+++ b/raw/1970election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18787A4-1F58-5041-90A6-D5A1CE6CFA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED7CA9F-7A27-FE40-B917-E5E4CA0EE60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14980" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6478" uniqueCount="1927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6474" uniqueCount="1927">
   <si>
     <t>State</t>
   </si>
@@ -6630,8 +6630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1169" zoomScale="209" workbookViewId="0">
-      <selection activeCell="D1173" sqref="D1173"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="209" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="14"/>
@@ -10251,8 +10251,8 @@
       <c r="C159" t="s">
         <v>7</v>
       </c>
-      <c r="D159" t="s">
-        <v>16</v>
+      <c r="D159">
+        <v>3</v>
       </c>
       <c r="E159" t="s">
         <v>1558</v>
@@ -10274,8 +10274,8 @@
       <c r="C160" t="s">
         <v>7</v>
       </c>
-      <c r="D160" t="s">
-        <v>16</v>
+      <c r="D160">
+        <v>3</v>
       </c>
       <c r="E160" t="s">
         <v>1559</v>
@@ -10584,8 +10584,8 @@
       <c r="C174" t="s">
         <v>7</v>
       </c>
-      <c r="D174" t="s">
-        <v>10</v>
+      <c r="D174">
+        <v>2</v>
       </c>
       <c r="E174" t="s">
         <v>233</v>
@@ -10653,8 +10653,8 @@
       <c r="C177" t="s">
         <v>7</v>
       </c>
-      <c r="D177" t="s">
-        <v>16</v>
+      <c r="D177">
+        <v>3</v>
       </c>
       <c r="E177" t="s">
         <v>1567</v>

--- a/raw/1970election.xlsx
+++ b/raw/1970election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED7CA9F-7A27-FE40-B917-E5E4CA0EE60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CEA77C-2FE0-2046-A1F5-23A703AFF586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14980" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6630,8 +6630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="209" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="A645" zoomScale="209" workbookViewId="0">
+      <selection activeCell="C657" sqref="C657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="14"/>
@@ -19629,7 +19629,7 @@
         <v>7</v>
       </c>
       <c r="D575">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E575" t="s">
         <v>669</v>
@@ -21382,7 +21382,7 @@
         <v>784</v>
       </c>
       <c r="C653" t="s">
-        <v>52</v>
+        <v>1513</v>
       </c>
       <c r="D653" t="s">
         <v>10</v>
@@ -21405,7 +21405,7 @@
         <v>784</v>
       </c>
       <c r="C654" t="s">
-        <v>52</v>
+        <v>1513</v>
       </c>
       <c r="D654" t="s">
         <v>10</v>
@@ -21428,7 +21428,7 @@
         <v>784</v>
       </c>
       <c r="C655" t="s">
-        <v>52</v>
+        <v>1513</v>
       </c>
       <c r="D655" t="s">
         <v>16</v>
@@ -21451,7 +21451,7 @@
         <v>784</v>
       </c>
       <c r="C656" t="s">
-        <v>52</v>
+        <v>1513</v>
       </c>
       <c r="D656" t="s">
         <v>16</v>
